--- a/PCQA/ExcelDatosCuentasCompaniaUBER.xlsx
+++ b/PCQA/ExcelDatosCuentasCompaniaUBER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\DataSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC19D3E3-EC74-4D66-AD54-A463999EBB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D60BC09-7B2F-4FFF-9C35-585037CB6B0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,12 +58,6 @@
     <t>NumeroCalle</t>
   </si>
   <si>
-    <t>ssurgwsoadev4.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>https://ssurgwsoadev4.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
-  </si>
-  <si>
     <t>Usuario</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>gw</t>
   </si>
   <si>
-    <t>Mattioli Luis Federico</t>
-  </si>
-  <si>
     <t>NombreProductor</t>
   </si>
   <si>
@@ -101,6 +92,15 @@
   </si>
   <si>
     <t>UBER B.V. Y/O RASIER OPERATIONS B.V. Y/O UBER PORTIER B.V.</t>
+  </si>
+  <si>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>Corporativos Directos</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,13 +512,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -527,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -547,40 +547,40 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>55000004234</v>
       </c>
       <c r="G2">
-        <v>2302</v>
+        <v>6965</v>
       </c>
       <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
       </c>
       <c r="M2">
         <v>7</v>
@@ -592,7 +592,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{A1AAE8A8-043D-4CC5-B0B4-FBCC8F3F5980}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{FD3F4EEB-2139-4AAF-A1B1-045B3770CE19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
